--- a/zillow/eski/ZillowExampleOutput.xlsx
+++ b/zillow/eski/ZillowExampleOutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,15 +611,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>120575794</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>120575794</t>
-        </is>
+      <c r="A2" t="n">
+        <v>120575794</v>
+      </c>
+      <c r="B2" t="n">
+        <v>120575794</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -631,10 +627,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1700481</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1700481</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -676,10 +670,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N2" t="n">
+        <v>10128</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -754,15 +746,11 @@
       <c r="AI2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>244820102</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>244820102</t>
-        </is>
+      <c r="A3" t="n">
+        <v>244820102</v>
+      </c>
+      <c r="B3" t="n">
+        <v>244820102</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -774,10 +762,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1701653</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1701653</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -819,10 +805,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>10023</t>
-        </is>
+      <c r="N3" t="n">
+        <v>10023</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -897,15 +881,11 @@
       <c r="AI3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>31491166</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31491166</t>
-        </is>
+      <c r="A4" t="n">
+        <v>31491166</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31491166</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -917,10 +897,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1682258</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1682258</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -962,10 +940,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>10280</t>
-        </is>
+      <c r="N4" t="n">
+        <v>10280</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1042,15 +1018,11 @@
       <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>31513933</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>31513933</t>
-        </is>
+      <c r="A5" t="n">
+        <v>31513933</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31513933</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,10 +1034,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1701775</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1701775</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1107,10 +1077,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
+      <c r="N5" t="n">
+        <v>10019</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1187,15 +1155,11 @@
       <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>89229327</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>89229327</t>
-        </is>
+      <c r="A6" t="n">
+        <v>89229327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89229327</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,10 +1171,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1701699</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1701699</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1252,10 +1214,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N6" t="n">
+        <v>10128</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1328,15 +1288,11 @@
       <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>97538558</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>97538558</t>
-        </is>
+      <c r="A7" t="n">
+        <v>97538558</v>
+      </c>
+      <c r="B7" t="n">
+        <v>97538558</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1348,10 +1304,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1660490</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1660490</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1393,10 +1347,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>10065</t>
-        </is>
+      <c r="N7" t="n">
+        <v>10065</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
@@ -1473,15 +1425,11 @@
       <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>111711473</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>111711473</t>
-        </is>
+      <c r="A8" t="n">
+        <v>111711473</v>
+      </c>
+      <c r="B8" t="n">
+        <v>111711473</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1493,10 +1441,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1701761</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1701761</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1538,10 +1484,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N8" t="n">
+        <v>10128</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -1616,15 +1560,11 @@
       <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>219697970</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>219697970</t>
-        </is>
+      <c r="A9" t="n">
+        <v>219697970</v>
+      </c>
+      <c r="B9" t="n">
+        <v>219697970</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1636,10 +1576,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1701760</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1701760</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1681,10 +1619,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N9" t="n">
+        <v>10128</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -1761,15 +1697,11 @@
       <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>244803085</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>244803085</t>
-        </is>
+      <c r="A10" t="n">
+        <v>244803085</v>
+      </c>
+      <c r="B10" t="n">
+        <v>244803085</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1781,10 +1713,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1701763</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1701763</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1826,10 +1756,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>10023</t>
-        </is>
+      <c r="N10" t="n">
+        <v>10023</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
@@ -1916,15 +1844,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>111039033</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>111039033</t>
-        </is>
+      <c r="A11" t="n">
+        <v>111039033</v>
+      </c>
+      <c r="B11" t="n">
+        <v>111039033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1936,10 +1860,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1701757</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1701757</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1981,10 +1903,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>10009</t>
-        </is>
+      <c r="N11" t="n">
+        <v>10009</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2069,15 +1989,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>72533493</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>72533493</t>
-        </is>
+      <c r="A12" t="n">
+        <v>72533493</v>
+      </c>
+      <c r="B12" t="n">
+        <v>72533493</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2089,10 +2005,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1670980</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1670980</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2134,10 +2048,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>10028</t>
-        </is>
+      <c r="N12" t="n">
+        <v>10028</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2224,15 +2136,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>244758572</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>244758572</t>
-        </is>
+      <c r="A13" t="n">
+        <v>244758572</v>
+      </c>
+      <c r="B13" t="n">
+        <v>244758572</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2244,10 +2152,8 @@
           <t>For Sale by Owner</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1688538</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1688538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2289,10 +2195,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>10075</t>
-        </is>
+      <c r="N13" t="n">
+        <v>10075</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2363,15 +2267,11 @@
       <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>63871484</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>63871484</t>
-        </is>
+      <c r="A14" t="n">
+        <v>63871484</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63871484</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2383,10 +2283,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1701749</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1701749</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2428,10 +2326,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
+      <c r="N14" t="n">
+        <v>10022</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -2508,15 +2404,11 @@
       <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>338881481</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>338881481</t>
-        </is>
+      <c r="A15" t="n">
+        <v>338881481</v>
+      </c>
+      <c r="B15" t="n">
+        <v>338881481</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2528,10 +2420,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1699640</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1699640</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2573,10 +2463,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>10027</t>
-        </is>
+      <c r="N15" t="n">
+        <v>10027</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2665,15 +2553,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>63871559</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>63871559</t>
-        </is>
+      <c r="A16" t="n">
+        <v>63871559</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63871559</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2685,10 +2569,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1701745</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1701745</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2730,10 +2612,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
+      <c r="N16" t="n">
+        <v>10022</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2810,15 +2690,11 @@
       <c r="AI16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>89330123</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>89330123</t>
-        </is>
+      <c r="A17" t="n">
+        <v>89330123</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89330123</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2830,10 +2706,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1701739</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1701739</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2875,10 +2749,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>10007</t>
-        </is>
+      <c r="N17" t="n">
+        <v>10007</v>
       </c>
       <c r="O17" t="n">
         <v>3</v>
@@ -2967,15 +2839,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>63871555</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>63871555</t>
-        </is>
+      <c r="A18" t="n">
+        <v>63871555</v>
+      </c>
+      <c r="B18" t="n">
+        <v>63871555</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2987,10 +2855,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1701738</t>
-        </is>
+      <c r="E18" t="n">
+        <v>1701738</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3032,10 +2898,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
+      <c r="N18" t="n">
+        <v>10022</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -3112,15 +2976,11 @@
       <c r="AI18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>31539779</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>31539779</t>
-        </is>
+      <c r="A19" t="n">
+        <v>31539779</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31539779</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3132,10 +2992,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1701743</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1701743</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3177,10 +3035,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>10021</t>
-        </is>
+      <c r="N19" t="n">
+        <v>10021</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -3269,15 +3125,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>72515600</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>72515600</t>
-        </is>
+      <c r="A20" t="n">
+        <v>72515600</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72515600</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3289,10 +3141,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1698217</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1698217</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3334,10 +3184,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>10001</t>
-        </is>
+      <c r="N20" t="n">
+        <v>10001</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -3424,15 +3272,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>65316169</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>65316169</t>
-        </is>
+      <c r="A21" t="n">
+        <v>65316169</v>
+      </c>
+      <c r="B21" t="n">
+        <v>65316169</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3444,10 +3288,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1701422</t>
-        </is>
+      <c r="E21" t="n">
+        <v>1701422</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3489,10 +3331,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>10024</t>
-        </is>
+      <c r="N21" t="n">
+        <v>10024</v>
       </c>
       <c r="O21" t="n">
         <v>3</v>
@@ -3577,15 +3417,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>72514254</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>72514254</t>
-        </is>
+      <c r="A22" t="n">
+        <v>72514254</v>
+      </c>
+      <c r="B22" t="n">
+        <v>72514254</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3597,10 +3433,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1701722</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1701722</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3642,10 +3476,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>10014</t>
-        </is>
+      <c r="N22" t="n">
+        <v>10014</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -3732,15 +3564,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>342181176</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>342181176</t>
-        </is>
+      <c r="A23" t="n">
+        <v>342181176</v>
+      </c>
+      <c r="B23" t="n">
+        <v>342181176</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3752,10 +3580,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1701729</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1701729</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3797,10 +3623,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N23" t="n">
+        <v>10128</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3883,15 +3707,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>31531280</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>31531280</t>
-        </is>
+      <c r="A24" t="n">
+        <v>31531280</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31531280</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3903,10 +3723,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1699087</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1699087</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3948,10 +3766,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>10017</t>
-        </is>
+      <c r="N24" t="n">
+        <v>10017</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -4038,15 +3854,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>72510551</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>72510551</t>
-        </is>
+      <c r="A25" t="n">
+        <v>72510551</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72510551</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4058,10 +3870,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1700553</t>
-        </is>
+      <c r="E25" t="n">
+        <v>1700553</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4103,10 +3913,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>10038</t>
-        </is>
+      <c r="N25" t="n">
+        <v>10038</v>
       </c>
       <c r="O25" t="n">
         <v>3</v>
@@ -4191,15 +3999,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>72526676</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>72526676</t>
-        </is>
+      <c r="A26" t="n">
+        <v>72526676</v>
+      </c>
+      <c r="B26" t="n">
+        <v>72526676</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4211,10 +4015,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1701645</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1701645</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4256,10 +4058,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>10022</t>
-        </is>
+      <c r="N26" t="n">
+        <v>10022</v>
       </c>
       <c r="O26" t="n">
         <v>3</v>
@@ -4346,15 +4146,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>31502412</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>31502412</t>
-        </is>
+      <c r="A27" t="n">
+        <v>31502412</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31502412</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4366,10 +4162,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1701709</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1701709</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4411,10 +4205,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
+      <c r="N27" t="n">
+        <v>10011</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -4503,15 +4295,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2085792156</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2085792156</t>
-        </is>
+      <c r="A28" t="n">
+        <v>2085792156</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2085792156</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4523,10 +4311,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1701449</t>
-        </is>
+      <c r="E28" t="n">
+        <v>1701449</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -4568,10 +4354,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>10128</t>
-        </is>
+      <c r="N28" t="n">
+        <v>10128</v>
       </c>
       <c r="O28" t="n">
         <v>5</v>
@@ -4656,15 +4440,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2092956600</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2092956600</t>
-        </is>
+      <c r="A29" t="n">
+        <v>2092956600</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2092956600</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4676,10 +4456,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1701714</t>
-        </is>
+      <c r="E29" t="n">
+        <v>1701714</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -4721,10 +4499,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>10003</t>
-        </is>
+      <c r="N29" t="n">
+        <v>10003</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -4799,15 +4575,11 @@
       <c r="AI29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>117457852</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>117457852</t>
-        </is>
+      <c r="A30" t="n">
+        <v>117457852</v>
+      </c>
+      <c r="B30" t="n">
+        <v>117457852</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4819,10 +4591,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1701652</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1701652</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4864,10 +4634,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>10025</t>
-        </is>
+      <c r="N30" t="n">
+        <v>10025</v>
       </c>
       <c r="O30" t="n">
         <v>3</v>
@@ -4944,15 +4712,11 @@
       <c r="AI30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2054962070</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2054962070</t>
-        </is>
+      <c r="A31" t="n">
+        <v>2054962070</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2054962070</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4964,10 +4728,8 @@
           <t>For Sale by Agent</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1701707</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1701707</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5009,10 +4771,8 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>10075</t>
-        </is>
+      <c r="N31" t="n">
+        <v>10075</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -5086,6 +4846,4585 @@
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31537061</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31537061</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1705452</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/1ae382c05c42188723a7d0c53c558285-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/200-E-69th-St-APT-2U-New-York-NY-10021/31537061_zpid/</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>$875,000</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>200 E 69th St APT 2U, New York, NY 10021</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>650 sqft</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7673, 'longitude': -73.9618}</t>
+        </is>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Wed. 3:30-5pm'}</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>773500</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Listing by: Bond New York</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/1ae382c05c42188723a7d0c53c558285-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb0cc34fe5f32a291d471978c656a881-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/168a4e1aee949c58938c0ea2efda9bf7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d33d61cf6ade1fffafbd66e0e8715094-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/007bb4218f813e28fe990f85876950f6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/154f4d5df36212ecca154ab7f70ca1c7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6918a14178902d0a0ee39195bd03d78e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b5ef765b69363d39269609cfd21587ef-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9a381cacc14e38a56a89f72564245113-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1f64ed5ad6ea6ebe2b30837e2cf4dce6-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>190191</v>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>2024-03-20T15:30:00</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>2024-03-20T17:00:00</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Open House - 3:30 - 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>79979000</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>79979000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1705455</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/2f0df9279b9017853c1d05980ab0488f-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/400-E-90th-St-APT-8D-New-York-NY-10128/79979000_zpid/</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>$1,375,000</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>400 E 90th St APT 8D, New York, NY 10128</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1026 sqft</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7791, 'longitude': -73.9473}</t>
+        </is>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '5 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>1139600</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Listing by: Corcoran</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/2f0df9279b9017853c1d05980ab0488f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8ed084b7a3aa60af78dc7bc8472215e3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a2338aa7248818b4a8e0a892aa33ea9d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/baa88e811bba48aa96673ffbf4dca0f0-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e372861f780a861df3f406186d51cb17-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/347458fb7843bf793130da94728ce97e-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>6595</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>322321</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>122062577</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>122062577</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1705442</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/95f182496c28c525ead2d6a311180db9-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/48-W-138th-St-APT-6H-New-York-NY-10037/122062577_zpid/</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>$399,000</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>48 W 138th St APT 6H, New York, NY 10037</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>476 sqft</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.8154, 'longitude': -73.9385}</t>
+        </is>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '5 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>403400</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Listing by: Sotheby's International Realty</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/95f182496c28c525ead2d6a311180db9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/865a92e14ed3778b4021d61c3090e71f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/43d283f146f1175b83f144b226432313-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7d22636c780acfab646ec052040d28cc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/58e5f29ef8cd2b8146bc082da3dc27e8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bac7d4f356ea3c1e1fabad4bd5fd1e94-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d1b9704c5c7e90496cda9906acfa1e3e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5d12e89ee340e14e87e3d51a9875475c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/948de16a2bd11feea016c4ed227fcb9e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3a504377a3685d8ce8f17b24ab276540-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/975870feaf5e62fec84584a47292b0f6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/01bf0e6627c95ddd2dc6e6eee85c75c3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5fd138e4ffd2f407f8d225d8bc70f4e3-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>2394</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>137188</v>
+      </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>244822653</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>244822653</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1705456</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/ddfd58bbfcc77741055996af94468169-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/180-W-End-Ave-APT-9K-New-York-NY-10023/244822653_zpid/</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>$550,000</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>180 W End Ave APT 9K, New York, NY 10023</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>10023</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7773, 'longitude': -73.9854}</t>
+        </is>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Wed. 11am-12:30pm'}</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Listing by: Corcoran</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/ddfd58bbfcc77741055996af94468169-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4e946380d9c238502a6ab172a9cd37cc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2456dbce1aaa8048ed459523f8df444f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1b2d309129da28e41af473e0f1a0b2d2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/83f7a1934a09fe0c8a0b5ea6815e43ed-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cfb28e2b805e86ccea0308c931626866-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6d0ac6ff384cb18e65bb15e4529b837d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a9968720c23c72a1ca20a94a86ebf0ec-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/28b74b66e8318246cd31a37b1db7aff2-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>3750</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>95597000</v>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>2024-03-20T11:00:00</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>2024-03-20T12:30:00</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Open House - 11:00 AM - 0:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>89330203</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>89330203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1677224</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/39f3594a2662d66bc79e808a905e12a3-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/75-Wall-St-APT-19R-New-York-NY-10005/89330203_zpid/</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>$995,000</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>75 Wall St APT 19R, New York, NY 10005</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>10005</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1074 sqft</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.70504, 'longitude': -74.00812}</t>
+        </is>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '6 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>962500</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Listing by: Platinum Properties</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/39f3594a2662d66bc79e808a905e12a3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e637def572927eb09a0ff96f372d0106-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/626b0a48719a5f1fe00abd374dee238b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5ec657d029d21177237f6d591fd75bb4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bbb54bc17c3e7ddf92a7b06c24dc1afc-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>7185</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>445743</v>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2070965882</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2070965882</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1703146</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/2b3dedbfe704183981427fe553341f14-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/547-W-47th-St-801-New-York-NY-10036/2070965882_zpid/</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>$1,355,000</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>547 W 47th St #801, New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>698 sqft</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.76409, 'longitude': -73.99538}</t>
+        </is>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '12 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Listing by: Corcoran</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/2b3dedbfe704183981427fe553341f14-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/70ae14fcba84bd766c7010ba672f5582-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/deb5a5bce3bbf4bdc0e0cfbcb100c592-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/39267181ecc1fa11040b5922d902a148-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6590dea75129cd85b3578fbdd7461a47-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/17253bd023030683697fa3da41610e4b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e5fd0b1c6d0259bb228a8dc45c2954b5-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>3699</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>345080820</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>345080820</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1705437</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/7181253cf13318206700543d4268987c-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/650-E-6th-St-4-New-York-NY-10009/345080820_zpid/</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>$1,999,000</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>650 E 6th St #4, New York, NY 10009</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>10009</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1228 sqft</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7235, 'longitude': -73.97986}</t>
+        </is>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '33 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/7181253cf13318206700543d4268987c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6634e546dd943b72ddcada819a397391-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/93775be50563adf6d3aa13fde3694dae-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8614cb94c11e09a767687c8fee3f48c5-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/afcbb2633120a423718745296f8e79b9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4a93d18d6116a2517684141ddd115166-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9c6214fb2986f16ce8e4d037199135b7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb994473795290a919fe8963f4e53793-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8e4230128c0b46cce6364f6822500b35-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7ef77c4d8f657565fe9deca0d25e7b08-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d3bf18e9e872c7944ab557d4b7da5bf2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/001ba0ff0d7ebc710112598199fc2294-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2071796301</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2071796301</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1702783</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/dba7fb608ed3b99da6c46cc2bf469de4-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/49-Chambers-St-15H-New-York-NY-10007/2071796301_zpid/</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>$2,700,000</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>49 Chambers St #15H, New York, NY 10007</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10007</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1459 sqft</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.714, 'longitude': -74.0051}</t>
+        </is>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Thu. 3-5pm'}</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Listing by: Corcoran</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/dba7fb608ed3b99da6c46cc2bf469de4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9087c38a2f16995528c992226a19a67d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/07f6fa1eed914f7b380093c48f5b563a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3ec4cf9e5fc4e86144c8e5031f53f15a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d799d97a56b9dcfe4f5d16363cf52532-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3c4039bd69baa251c8b091a4341eaf41-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/40667b17836507e9656872822d3f22b7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/19cb1451a0665417d1a37efa73a30781-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/50cb7f2af38b413c6f7e3304e2a08fe5-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3f961692db1de7b332f8877d9420e5a0-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0a51ff9672213c37045fbe6ccc0fcd81-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ee1b7c04ba8174b1575e4a6ebfc5e08c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/153b95331e9c7b276a5a550597b12854-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/079fe44f12fb1022f2c52f296e29fdb1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9e96c4db0e7b46b4b83f1cc18907ef28-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4721b8e663fe4d7c9788b904a43100db-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d09e95eced907a5e30851758bde3052f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/11d7e881706972fd31f111e0c4324d7b-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>9899</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>2024-03-21T15:00:00</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>2024-03-21T17:00:00</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Open House - 3:00 - 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>244806474</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>244806474</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1703239</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/0a926086e0d3ef0358d093de06103812-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/50-West-St-34C-New-York-NY-10006/244806474_zpid/</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>$5,925,000</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>50 West St #34C, New York, NY 10006</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>10006</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2302 sqft</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.70776, 'longitude': -74.01499}</t>
+        </is>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '40 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>4578100</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Listing by: Time Equities, Inc.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/0a926086e0d3ef0358d093de06103812-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e84d38e0487ce63bc8c82adfe59acd2d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7401198be1c18dc817561675c6bbc8a2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/68172e0857843c2e3ce57fa18553c222-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/62bf5d9ed6c7c299e1016cd80c972b23-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/651f2b1db5be88ef9242f0b7704f27fb-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c655d07cfdc09a0d4862566c9ba1d7ec-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7b4de045a1284e5ca9d09080bf55222a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/673e0fcbcd5f2ba087d5cd40aafd8a55-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9b2a41fe7896216d5275ee880c65d97f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5ead5755dcd6edb83420501ffb5e008e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1645dc582f6199c3895ee9b1615a0d34-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/20326cc9e78418f9511c50b804d1c267-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c38a44f9c63f6f4641bb8fcebd6bd3b7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3432e2bae12cb26c4837467979c4d98e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9164e02a89cdeb6f513b3f825f06ffdc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0b1f98fc92144a62828ac1b2dffab814-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ba9d5d1830dc238fcaf44577f7636c16-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cbfdd8928031d880bb66e500454755f3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a03cdccff3eb147462e87097c48d98b7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5d8df11bb453b2e573848185164fd83c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6c16f210ac959e7da9e5bad8d680a6d9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cead827707b4cfd123f15f6f3946cffd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/25a0289e9a9818a44f4a7a3f1db343ba-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8d17848197ed485fb61afa5e5cdf2ec4-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>19398</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>861936</v>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2060531694</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2060531694</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1705430</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/5ac0561d10adbcf5ed69f0f670c18474-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/650-6th-St-TWH-New-York-NY-10009/2060531694_zpid/</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>$2,700,000</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>650 6th St #TWH, New York, NY 10009</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>10009</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1815 sqft</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7235, 'longitude': -73.97986}</t>
+        </is>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '53 minutes ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/5ac0561d10adbcf5ed69f0f670c18474-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7774255abda5e466cff4b0bafb01a6e2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7ee77eca0a5c3fe224dd60b14f6c4aeb-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ad44fef8492efaa90bb864c0cbed659f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0d1518b67e09861e2367250d730998ee-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7ebc75bccb714c3e8e7b12a7c3550541-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4a93d18d6116a2517684141ddd115166-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9c6214fb2986f16ce8e4d037199135b7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb994473795290a919fe8963f4e53793-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8e4230128c0b46cce6364f6822500b35-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3be125f18e352aca8cbb80e7cfcb3a24-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>11330</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>31527703</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>31527703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1705299</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/47b73da9993c88521d56c1042624626f-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/641-5th-Ave-40E-New-York-NY-10022/31527703_zpid/</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>$3,495,000</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>641 5th Ave #40E, New York, NY 10022</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1793 sqft</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7592, 'longitude': -73.9761}</t>
+        </is>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>2775800</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Listing by: Engel &amp; VÃ¶lkers New York Real Estate</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/47b73da9993c88521d56c1042624626f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1efb27c4ae56d3e1997ce9e449eeb653-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7d58dae8079deb0472ce9460823dcfcb-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d2d5d493a6ec0290e0f74923e0ac0c8a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b86a453f8740dfe4c1371f47153d26c9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1b9c43c4d20ab29a2b543886c198db67-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cfb14586861a3223b3da149d16b673a9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7f66da2afe22439a43b8ab25bc3a6486-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f7cb5860a85e9e6683d5c420998fe385-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4ae6d2205bad0992d424d046ae8faa91-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0c47740e68a91994cb611cdc34bff290-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2a7298539e562f8797d577c281d30610-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9ae26a3649956f7f9c7e2d051abd7fd5-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fabc167a6ecd6663933a3efee1451768-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>11999</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>711649</v>
+      </c>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>219698116</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>219698116</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1705384</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/48e1341d8e848628937475b2613bf752-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/200-E-94th-St-APT-2609-New-York-NY-10128/219698116_zpid/</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>$1,250,000</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>200 E 94th St APT 2609, New York, NY 10128</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>754 sqft</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7836, 'longitude': -73.9499}</t>
+        </is>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 12-2pm'}</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>846600</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Listing by: OFFICIAL</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/48e1341d8e848628937475b2613bf752-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/267e569893642e478f9bbf7c38c915a4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/10e43019509fb40e020d8be5fefba6b9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3548a7cc3c2907fb08de89783559c3ad-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bbe8fb1a2a15057c22f4fcf578b65a6d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/87af7b25025f71a68c635b3aa4804fe7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bdd6a5c42d6de2a5f14364b65fe8d9f3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7d795f550bca27ccf40caee1363119da-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1f55ec073bace3ffa824145681369e6b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bb14af232fd0f1af5d9c8a54704c383d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fac29b17286ec788ae533e90b8f23743-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/de94b12b71105abd781ac5a69fe66030-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/69017bdadaf1d8bd47f9859442f26256-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6cee8f8a5d62e3c33a2a1bdd12438cfb-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2edeeea665ffaaf17969918ea0536062-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a0ad1723b83064a45f0c3118a39bd192-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/60ae91c91a2ead8e764e6b8378a10eba-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>5399</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>226921</v>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>2024-03-24T12:00:00</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>2024-03-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Open House - 0:00 - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>244784258</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>244784258</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1705423</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/5a6f7cb4fb8f3ab1620c247b98315a27-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/800-Park-Ave-5-New-York-NY-10021/244784258_zpid/</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>$11,250,000</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>800 Park Ave #5, New York, NY 10021</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>4</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>4500 sqft</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.772766, 'longitude': -73.96299}</t>
+        </is>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Listing by: Corcoran</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/5a6f7cb4fb8f3ab1620c247b98315a27-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bbed0bbfcf2125871b3378b51c223570-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ba9b6fef295928849cbc4ba5a60891ea-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2e48e2fa8f54f4a3b76f66d6769ef17c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d15a5671a16eb0d12a1be35e1f826727-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d92e15c9855f1b40868d6951aa01610d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/91ce340d96a7d5ac5f35b7443c4c2f1d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6394e08c1d14de8c5b51c65ed5becb68-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/42e146a195274d6da8c421f9e79ec467-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/72433470bc916c8b7dec5c0bf290d7a1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ee1c7017f13c2fd06726d08ebf038f50-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3d082c43ba6c6c1e956ce676692e15c8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5fcd34c95ac0b38c88fb859e0366c5f6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/02739388531d472e2b67fc1d998cd675-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/14041c7bdf464326e533b31d43e1d3f3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/081d094cb2c5fbf24fcb5fd5a35f9acd-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>37999</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>17344000</v>
+      </c>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>31499189</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31499189</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1705417</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/3f5acffa4e1c7e39d8db2d643279b29f-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/44-Bedford-St-New-York-NY-10014/31499189_zpid/</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Multi-family home for sale</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>$6,450,000</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>44 Bedford St, New York, NY 10014</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>10014</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>3604 sqft</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.730415, 'longitude': -74.00412}</t>
+        </is>
+      </c>
+      <c r="S45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>4256200</v>
+      </c>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Listing by: Avison Young New York LLC</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/3f5acffa4e1c7e39d8db2d643279b29f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3153739c2fc9b4fbd742bfa68352f2bf-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a302c6ff879adb24e5adfa21aff702b3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e30a480dbac855e727713c9aa5329004-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7597b970ee5a6f2f8f2aaced7c63758d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/204f2c211bbbba6dcc2d186b1f7c048a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e606f07d977e183668ecff89162c1a8b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cf0e9ca233355acfe567519e6d02e66a-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>18046</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>4278000</v>
+      </c>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>345078153</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>345078153</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1705419</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/58819ec0edc6972b191adb82f5397b97-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/7-E-14th-St-701-703-New-York-NY-10003/345078153_zpid/</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>$1,500,000</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>7 E 14th St #701/703, New York, NY 10003</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7359, 'longitude': -73.9925}</t>
+        </is>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sat. 12-1:30pm'}</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Listing by: SERHANT.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/58819ec0edc6972b191adb82f5397b97-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c46ae3defe05804ed6787cfaeef16afc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9bb7bbf5168cba39f5911e3f143630a3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/92438b9b0084df34aea63bee56871e04-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/33c2ac02d56ab76118e1fba79dd75892-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb4d0c4162b563aeb82f11d818f355f8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2a3037687bb1e35bacf5e1fe91f4b149-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f06fec172c6c10dd56d13dfa1d72cbfe-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8a445ff1386389a1a4f5824abd70b543-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c58dccadd867beebc3936ab6fefaedc2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3934c461e9402750ba89c83ee4d3fe5b-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>2024-03-23T12:00:00</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>2024-03-23T13:30:00</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Open House - 0:00 - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>72533050</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>72533050</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1705416</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/127f2c2eef372d2d442a3fe1df885cdc-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/421-E-84th-St-APT-1R-New-York-NY-10028/72533050_zpid/</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>$1,325,000</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>421 E 84th St APT 1R, New York, NY 10028</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.77535, 'longitude': -73.94925}</t>
+        </is>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 11:30am-1pm'}</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>1207900</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/127f2c2eef372d2d442a3fe1df885cdc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7addb263f125657b64a46657bef6dc3e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d2d5649d69a40997163a82554b61f8de-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f52b6ca115ac278efad237047bdafb61-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3a94d8cf1fc5a99c2d19edd58f4de987-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/53112b941176e13ef72cb17cb714e863-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/20b6d18ff54b22e6e5c4a752dc5f276c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b1194baf0e44046ba069488fc62612f0-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/048b40dfaaecc2fe1dc2bb7bef128bc2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/920e3875f496fd4618e85c87f212718a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f69df26251a628321c4d200d7916c7cc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/603c845fc56043946d67dcfc022b1313-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0e657e109d182f217194d7edf6109498-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>7370</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>2024-03-24T11:30:00</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>2024-03-24T13:00:00</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Open House - 11:30 AM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>79497248</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>79497248</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1705355</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/7d2cf55939052cfbfbda216709c33934-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/205-3rd-Ave-APT-17F-New-York-NY-10003/79497248_zpid/</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>$725,000</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>205 3rd Ave APT 17F, New York, NY 10003</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.73623, 'longitude': -73.984314}</t>
+        </is>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>679900</v>
+      </c>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/7d2cf55939052cfbfbda216709c33934-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bfad2a138ae3121cc777863da84660bd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e3a312ad57eeffd2e3f34c49b8109bac-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c149c4fed02c45c85c9bd436f1cd067a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3ce6d33f03c12e284bb2e8c0feeaf110-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1dcaaa35c6a5c6e2d32547fe927c520d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ec39fc19341373667f22a83309b8d88f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b3402bac4948622e19c6b043a4169442-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>5370</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>300199897</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>300199897</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1705281</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/37b734e5ca63ebff9709d2f49eaf8049-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/308-E-38th-St-APT-19D-New-York-NY-10016/300199897_zpid/</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>$1,395,000</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>308 E 38th St APT 19D, New York, NY 10016</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1115 sqft sqft</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7468, 'longitude': -73.9735}</t>
+        </is>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>1392200</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/37b734e5ca63ebff9709d2f49eaf8049-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bcbcc5c3603d4b93124412f6ec5086ca-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2deae64822f92e26bc0cdfc1026224e7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4af666311ea42a1caec781aedeaafeb6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/90e86035d20742cfb5fb6b35ecb0ff22-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b55b7bbff7e46267591d784acd894118-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d0e4c1b28356a8d99a0982a299bf77a1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/26897527ff528d21f14566d4e7cdf7ff-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2b9df778784e2898ca822d494c23d548-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>6799</v>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>355444</v>
+      </c>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>300199897</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>300199897</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1705281</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/37b734e5ca63ebff9709d2f49eaf8049-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/308-E-38th-St-APT-19D-New-York-NY-10016/300199897_zpid/</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>$1,395,000</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>308 E 38th St APT 19D, New York, NY 10016</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1115 sqft sqft</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7468, 'longitude': -73.9735}</t>
+        </is>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>1392200</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/37b734e5ca63ebff9709d2f49eaf8049-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bcbcc5c3603d4b93124412f6ec5086ca-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2deae64822f92e26bc0cdfc1026224e7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4af666311ea42a1caec781aedeaafeb6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/90e86035d20742cfb5fb6b35ecb0ff22-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b55b7bbff7e46267591d784acd894118-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d0e4c1b28356a8d99a0982a299bf77a1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/26897527ff528d21f14566d4e7cdf7ff-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2b9df778784e2898ca822d494c23d548-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>6799</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>355444</v>
+      </c>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>245084691</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>245084691</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1705187</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/f7d81199fd5bb23b9d04b1bb13771cef-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/531-Main-St-APT-1213-New-York-NY-10044/245084691_zpid/</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>$1,345,000</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>531 Main St APT 1213, New York, NY 10044</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>10044</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1350 sqft</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7614, 'longitude': -73.9506}</t>
+        </is>
+      </c>
+      <c r="S51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 12-1:30pm'}</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>1361300</v>
+      </c>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/f7d81199fd5bb23b9d04b1bb13771cef-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fd31cf080f80f56958083752ecb51bde-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/210c49908a7083007c2732920ec053a3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fd25b33f118975b7f8cd8d74b92aa03d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f1174961a3e2f7009039f664336ea3ea-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f8165d4ff5b69944f5d83ef34336cdce-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c1fedbcea9831b9681875d9bff6e9d38-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9024e6f8b94733bdbcf8a9e31e99e8eb-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1308648093b83e7e701cc5bace8cb084-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2539b91b5c1096ecc6be0abc484d47e5-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/d55a7cf3cb440751a3c29daeface61d5-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>7800</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>2024-03-24T12:00:00</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>2024-03-24T13:30:00</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Open House - 0:00 - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>122273145</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>122273145</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1705350</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/a7c9af34434498a8dd8b25dbd0a87b95-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/93-Worth-St-SUITE-1206-New-York-NY-10013/122273145_zpid/</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>$5,995,000</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>93 Worth St SUITE 1206, New York, NY 10013</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>10013</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2721 sqft</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7166, 'longitude': -74.0048}</t>
+        </is>
+      </c>
+      <c r="S52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '1 hour ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Listing by: Douglas Elliman</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/a7c9af34434498a8dd8b25dbd0a87b95-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/527faaf368c27a5cfb8a40874b79a6ca-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9646b6dd258fa6d23d876090203acad4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c4888d1ac92f6fc15549a2fe0887c083-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0b41bef186e27052d60a30c739484f72-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f39d89152d390354e7fb132d92a8382f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3d3c05b91028ca57788fbc849be3807a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3731a8be3fe406ad2e91defac345ea33-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/aaaa69398e7814e754b89d5e40188878-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3ca9fd8d2573628f329a8add543838d3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bc2931df2ce3ae5234fecb9e459f4d10-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>26230</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>832372</v>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>244785523</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>244785523</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1702790</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/18207e356f51a0247e978d9cfe008b21-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/172-E-90th-St-APT-1W-New-York-NY-10128/244785523_zpid/</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>$2,950,000</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>172 E 90th St APT 1W, New York, NY 10128</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>5</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>3485 sqft</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.781414, 'longitude': -73.952774}</t>
+        </is>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 12-2pm'}</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Listing by: Brown Harris Stevens</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/18207e356f51a0247e978d9cfe008b21-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7b6b0637fd6bcf8aad8fa26df1a9c5f2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a598f541537e1661532a63c6e3ea9993-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a452339eec9744a27852705a4741dc6b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3c1d1de33715dbf3c383817b62aa67f6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/50858874d6f4072de0989e2e0e2c2c35-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/405c33d0d79433f0fca250765fa74a1b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6958caa5e1421fadf1cbd0f3df6c1456-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b667c096c2f93372e8903172cdfd4b7e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/78d17dd5800be696c0320172aa5165b6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c4d5aadce99d9b857f5f024ff051d817-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ba0ac1b5a918a2bb67af001296e0e8c3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c44936fd4a28495501ae231b6809743c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b9bf3a115648af97205073d37e5db012-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8dbf08f7811c3447daa3e5166ff047c7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3f4e925e3d33a5ba01ae79014a4ac099-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>6954000</v>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>2024-03-24T12:00:00</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>2024-03-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Open House - 0:00 - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>72525780</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>72525780</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>For Sale by Owner</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1700248</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/eeeeafb68fff1f34feb530f7f9f420cd-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/345-E-54th-St-APT-4J-New-York-NY-10022/72525780_zpid/</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>For sale by owner</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>$450,000</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>345 E 54th St APT 4J, New York, NY 10022</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>500 sqft</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7569, 'longitude': -73.9649}</t>
+        </is>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sat. 11am-2pm'}</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>For Sale By Owner</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>446300</v>
+      </c>
+      <c r="X54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/eeeeafb68fff1f34feb530f7f9f420cd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6e67a531107e91e3d732c417a9e3b8b8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0b14d810af1511a9e103e18eb24b0ce7-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e2d0f97bf8c6bd33484fea370b97ce28-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/66e900b99b92865ebfa862a1ec3f365b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ca2e9722b6b3cd6886014ea934972a66-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/26a7b22c9c18da372b5fd2733aa6561c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2dc475524804e9e962d2751c834fae4f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fec41f366021a7bbe563c93d6bb3c40d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5143099ac5262cbf3019b6672e258fe8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/425f8f4416ffbdd505f8dd1b3cd0243e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9bf48de10f78bfe1895ce58718870f07-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ea9694dd4e215bdd4d456f3d88b7451d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e3176ca8e7469f92ace677892aa58146-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/44a99839f09bdea60aab4cadd426e1b4-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>2895</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>2024-03-23T11:00:00</t>
+        </is>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>2024-03-23T14:00:00</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>Open House - 11:00 AM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>244803889</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>244803889</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1705406</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/f5784703915bd74e5d2ce58cbe9723ed-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/439-E-88th-St-APT-2F-New-York-NY-10128/244803889_zpid/</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>$695,000</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>439 E 88th St APT 2F, New York, NY 10128</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7778, 'longitude': -73.9469}</t>
+        </is>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 2-3:30pm'}</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/f5784703915bd74e5d2ce58cbe9723ed-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/65d8701722cd39ef32f68bdd7449061f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/502386551a5c5e5182330f8ed65fb8a4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/fe77b2989c799c5a46cc5d0d1cf1b3c1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/576e023c214bba487318e807f84a1afc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bb8e9263e17bfde0cc2f53bd62f24f9c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/553e1f823c2eabc35a5938091f33b0fd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/cd0f51dd96e89fd42b6cc861046db66a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9db2be83f8057e4c4f38a1d2ac275366-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c347214f5634f724920f7585ad2cf80f-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>5495</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>5127000</v>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>2024-03-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>2024-03-24T15:30:00</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Open House - 2:00 - 3:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>120288879</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>120288879</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1705408</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/111cbf1df92332cf6da2eb09fede6a6b-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/481-Washington-St-3N-New-York-NY-10013/120288879_zpid/</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>$4,750,000</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>481 Washington St #3N, New York, NY 10013</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>10013</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2953 sqft</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.725555, 'longitude': -74.00973}</t>
+        </is>
+      </c>
+      <c r="S56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 2-4pm'}</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>4525700</v>
+      </c>
+      <c r="X56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Listing by: Brown Harris Stevens</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/111cbf1df92332cf6da2eb09fede6a6b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7fda0fbb6d05f40e0185bbcf9ed6f0c2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5c1b98bb9c8fdf3a1311bc1a57afc9e5-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e41829fa9cd122994143315657934d10-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1dd886c3ea4c55016c1526265d9fed6d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3cabefaaf7bee8a0a970e623b50ba24e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/13640e70a51c431780cd0f2830184f99-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/dda82032e7ec0d2edf3706f395688dbd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5a11a2961d45f657af3c38f2a21070b6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/62f7c37182b533af5cfb46bfd6e445df-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/96b1965e8ce54c944343fc7227b7a2d1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/742458f05690e06851386e58bad4e5df-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4a4dae3fcd1c4e682944a9386129be99-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>18805</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1073020</v>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>2024-03-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>2024-03-24T16:00:00</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Open House - 2:00 - 4:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>244881987</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>244881987</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1705278</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/860cae57fbc4a885f6631ac462d57219-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/60-E-8th-St-APT-19K-New-York-NY-10003/244881987_zpid/</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Apartment for sale</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>$2,600,000</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>60 E 8th St APT 19K, New York, NY 10003</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7305, 'longitude': -73.9931}</t>
+        </is>
+      </c>
+      <c r="S57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '2 hours ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Listing by: Anchor Associates</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/860cae57fbc4a885f6631ac462d57219-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb19066482ec6ed6af804f887c5bd1e4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/33287ba150526cc4794e09be2ce45fc2-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4800a93b161b85361e33921eb459a014-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/db671436f22a767694580d7279d97062-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b46aadbe2bd4302919f038b45fa9e73e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/87c6938ae1e51080ee02e2d9f83f3805-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/978d5e7ee3089376bd87829c1008752f-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>115874000</v>
+      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2060968779</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2060968779</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1705282</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/32bc303bb83b0c2a797bd414b21dbd1b-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/205-E-63rd-St-PENTHOUSE-A-New-York-NY-10065/2060968779_zpid/</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>$895,000</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>205 E 63rd St PENTHOUSE A, New York, NY 10065</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1340 sqft</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7641, 'longitude': -73.9643}</t>
+        </is>
+      </c>
+      <c r="S58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '2 hours ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/32bc303bb83b0c2a797bd414b21dbd1b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e89db1ae6945fadd10985f645d2eb30b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5ff48ccd3dfc260b240392cf42cd56fc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/19343699eff0fd7c839c8705b176df6e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e7a1c25cd6631d9ee6d97601db02b78d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9986b2047c03d2e1938dc13b4caa3abc-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/413def1f8820db27f5b888413929ffd6-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1bbaea613cdfed7a0dd15565cfae9423-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ccb06e562aea615cda69a5b6b403ebcd-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/c88f3c4cfdc6f6ed5ef0f9cbb51d9a89-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/1d1faa061e54ef2aa24aac21db43efcd-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>9499</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>244886509</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>244886509</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1705403</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/234913a383b6acd0ee557563ca4286a1-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/185-W-End-Ave-APT-25G-New-York-NY-10023/244886509_zpid/</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>$749,000</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>185 W End Ave APT 25G, New York, NY 10023</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>10023</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.7779, 'longitude': -73.9868}</t>
+        </is>
+      </c>
+      <c r="S59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '2 hours ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/234913a383b6acd0ee557563ca4286a1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b1417058a7f155ae2fe2206d08b04f50-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/75ce83edfb0732943b9d940cdf2859fa-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bf441d5616e9196224fe853da8af584e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eec91c726f0ca9f65b6599ae3c305580-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/0580bf81823e89de27465b55649694ca-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5458ee4f936f660442995f0699038a38-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b82202e4c0e2e4408030865db2268c15-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/41ae373c059f1aa101d38f6e65488941-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/408379f24d670b423c89a1b7adbce3d4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/7b22f1df877c16e8053b8f7cf84d8e3a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/9c67fb11ff95538fdc0b644ec7349201-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8baf0057101450a5371187ca690a6163-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e4b6266b58af93698ae0aed9e9ae395b-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/eb327d12782a6b57fc0d936ac5b457b0-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/bb2a73f0ca5a0cc5c2d591b87261860d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/29e097ce74f6603567e89430a980d036-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/09e23ce7346f8928e9d674cf96684510-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f3d4c7a2025ac9ac071ad5097ae6a071-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/63c2b55101a9a6402e7371242ed34a3a-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>6499</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>84480000</v>
+      </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>244870617</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>244870617</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1705329</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/66795bb7fdc4b1731660ded64eede968-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/96-Perry-St-B2-New-York-NY-10014/244870617_zpid/</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>$925,000</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>96 Perry St #B2, New York, NY 10014</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>10014</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0 sqft</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.735, 'longitude': -74.0053}</t>
+        </is>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>{'type': 'OPEN_HOUSE', 'text': 'Open: Sun. 1-2:30pm'}</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/66795bb7fdc4b1731660ded64eede968-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/b93cef7e51cfa0ded90ab33311aea0e9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5f0718898602105c1a33015d3d4aed32-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2e63e2147888057b77c94dd0f1b3854c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/57e448c9e769d43323aeabae953fd70d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/12f2503d87fb14bd4a2a2814bd979978-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5b1a05ba87289f937c155e12d406a04a-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e3d795d2de1b8a2fb8b5d000318213ae-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/f9aa13b9547e526245239a8f6390e62f-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4a104e079e2e864c2d3df8d643a4f1cd-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>5082000</v>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>2024-03-24T13:00:00</t>
+        </is>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>2024-03-24T14:30:00</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Open House - 1:00 - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>126321091</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>126321091</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1705147</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/8e35c2d148a88edafc8c271002db393e-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/750-Park-Ave-4E-Manhattan-NY-10021/126321091_zpid/</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>$799,000</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>750 Park Ave #4E, Manhattan, NY 10021</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Manhattan</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>636 sqft</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.771, 'longitude': -73.9643}</t>
+        </is>
+      </c>
+      <c r="S61" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '2 hours ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>882400</v>
+      </c>
+      <c r="X61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Listing by: Compass</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/8e35c2d148a88edafc8c271002db393e-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/51ea76184ee43fb4178b18edb124e4f9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8bb9f15b3c1be8372d9e43f9eb35aa03-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/437c36476a1e982a6f7ad3de4e411fe8-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ced9cc827524985605106cb6321ca940-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/ab91c765366a69b1fe5a9c332e55a039-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/73853bf72e74a77ce9a7d1d0c24669b3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4f01f2b993473ccf08aa95ab7332e2d4-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/3d74fd11a09018c04a4d611d497ae427-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/6d47dbedd0f7ea720c2c165db5502655-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/98d779f971e5916789d937cb20a7517c-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>244697819</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>244697819</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>For Sale by Agent</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1705334</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://photos.zillowstatic.com/fp/933272535d915f5862949fed84047cc9-p_e.jpg</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.zillow.com/homedetails/840-Broadway-APT-2-New-York-NY-10003/244697819_zpid/</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FOR_SALE</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Condo for sale</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>$3,150,000</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>840 Broadway APT 2, New York, NY 10003</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>3000 sqft</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>{'latitude': 40.73374, 'longitude': -73.99072}</t>
+        </is>
+      </c>
+      <c r="S62" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>{'type': 'TIME_ON_INFO', 'text': '2 hours ago', 'data': {'isRead': None, 'isFresh': False}}</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>ForSale</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>For Sale (Broker)</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Listing by: Brown Harris Stevens</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>[{'url': 'https://photos.zillowstatic.com/fp/933272535d915f5862949fed84047cc9-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/609f73daacde5d8d352d62bf0853548c-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5c93f9c7fd810f466c9d830c2a9b1977-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/46cc804912d142299a3da9d57a7a65d3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/4ef838cd191002553ca3eb4c6b1a9d3d-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/e492ffd75a6c2f709b0859e345b62190-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/5c456058086083e0cd726f3beb3b6673-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/2348a66f539bb211674171202b186c80-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8537ac46810f7c2e03997f65dcbcaa39-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/8422e8b055cfba8e1566b8fc3b37cbb3-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/52095e59b6357ad38658c9d9a793dde1-p_e.jpg'}, {'url': 'https://photos.zillowstatic.com/fp/a21fba6bbe71aec56632f8cc0668725f-p_e.jpg'}]</t>
+        </is>
+      </c>
+      <c r="AC62" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>10790000</v>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
